--- a/SourceCode/2024/June_Basics/Ragini_Basics/Task 21/Temp.xlsx
+++ b/SourceCode/2024/June_Basics/Ragini_Basics/Task 21/Temp.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <x:workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E52D18A-FD16-42F7-827F-2809AC40E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7829788-A3C3-4223-95E8-795375237077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -43,7 +43,7 @@
     <x:t>Hyderabad temperature</x:t>
   </x:si>
   <x:si>
-    <x:t>Google's course for educators:</x:t>
+    <x:t>27</x:t>
   </x:si>
   <x:si>
     <x:t>London temperature</x:t>

--- a/SourceCode/2024/June_Basics/Ragini_Basics/Task 21/Temp.xlsx
+++ b/SourceCode/2024/June_Basics/Ragini_Basics/Task 21/Temp.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>City</x:t>
   </x:si>
@@ -43,16 +43,22 @@
     <x:t>Hyderabad temperature</x:t>
   </x:si>
   <x:si>
-    <x:t>27</x:t>
+    <x:t>31</x:t>
   </x:si>
   <x:si>
     <x:t>London temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
     <x:t>New York temperature</x:t>
   </x:si>
   <x:si>
     <x:t>Tokyo temperature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -468,15 +474,24 @@
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
